--- a/weclac.xlsx
+++ b/weclac.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t/>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>🇧🇷巴西</t>
+  </si>
+  <si>
+    <t>N Novel Food (De novos aliment)</t>
   </si>
   <si>
     <t>🇨🇱智利</t>
@@ -247,9 +250,8 @@
 N 功能性表示食品（产品）申报</t>
   </si>
   <si>
-    <t>N MONOGRAPHED HFFs 标准化健康功能食品成分
-N INDIVIDUALLY-RECOGNIZED HFFs 个别认可健康功能食品成分 BC99
-《韩国健康功能食品法典》</t>
+    <t>N MONOGRAPHED HFFs 标准化健康功能食品成分《韩国健康功能食品法典》
+N INDIVIDUALLY-RECOGNIZED HFFs 个别认可健康功能食品成分 BC99</t>
   </si>
   <si>
     <t>N Health Supplements菌种清单不包含</t>
@@ -287,6 +289,33 @@
   <si>
     <r>
       <t>https://data.food.gov.uk/regulated-products/feed_authorisations?search=lactobacillus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF267EF0"/>
+        <sz val="12"/>
+        <u/>
+      </rPr>
+      <t>https://app.powerbi.com/view?r=eyJrIjoiNTA3ZDQxOGEtYzg0NC00NTI1LTg0MzYtOGEzMWU4MThlNjAwIiwidCI6ImI2N2FmMjNmLWMzZjMtNGQzNS04MGM3LWI3MDg1ZjVlZGQ4MSJ9</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF0563C1"/>
+        <sz val="12"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
   <si>
@@ -975,7 +1004,7 @@
   <numFmts count="1">
     <numFmt numFmtId="300" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1008,6 +1037,10 @@
     </font>
     <font>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF0563C1"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1069,14 +1102,14 @@
     </border>
   </borders>
   <cellStyleXfs>
-    <xf numFmtId="300" fontId="8" fillId="0" borderId="2" xfId="0">
+    <xf numFmtId="300" fontId="9" fillId="0" borderId="2" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="300" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,10 +1122,10 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="8" fillId="0" borderId="2" xfId="0">
+    <xf numFmtId="300" fontId="9" fillId="0" borderId="2" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="300" fontId="8" fillId="0" borderId="2" xfId="0" applyAlignment="true">
+    <xf numFmtId="300" fontId="9" fillId="0" borderId="2" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="300" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true">
@@ -1101,40 +1134,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="300" fontId="9" fillId="2" borderId="2" xfId="1" applyAlignment="true">
+    <xf numFmtId="300" fontId="10" fillId="2" borderId="2" xfId="1" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="300" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="300" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="300" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="300" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1449,14 +1488,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="40.6641" style="19" customWidth="true"/>
-    <col min="3" max="3" width="32.6641" style="19" customWidth="true"/>
-    <col min="4" max="4" width="42.832" style="19" customWidth="true"/>
-    <col min="5" max="5" width="21.6641" style="19" customWidth="true"/>
-    <col min="6" max="6" width="37.832" style="19" customWidth="true"/>
-    <col min="7" max="7" width="21.5" style="19" customWidth="true"/>
-    <col min="8" max="8" width="21.6641" style="19" customWidth="true"/>
-    <col min="9" max="9" width="21.5" style="19" customWidth="true"/>
+    <col min="2" max="2" width="40.6641" style="21" customWidth="true"/>
+    <col min="3" max="3" width="32.6641" style="21" customWidth="true"/>
+    <col min="4" max="4" width="42.832" style="21" customWidth="true"/>
+    <col min="5" max="5" width="21.6641" style="21" customWidth="true"/>
+    <col min="6" max="6" width="37.832" style="21" customWidth="true"/>
+    <col min="7" max="7" width="21.5" style="21" customWidth="true"/>
+    <col min="8" max="8" width="21.6641" style="21" customWidth="true"/>
+    <col min="9" max="9" width="21.5" style="21" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
@@ -1492,76 +1531,76 @@
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>80</v>
+      <c r="B2" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="136">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>85</v>
+      <c r="B3" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F3" s="7" t="s"/>
       <c r="H3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>88</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>89</v>
+      <c r="B4" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>91</v>
+      <c r="I4" s="15" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="85">
@@ -1572,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="51">
@@ -1580,22 +1619,22 @@
         <v>22</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51">
@@ -1603,22 +1642,22 @@
         <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
@@ -1626,10 +1665,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="102">
@@ -1637,16 +1676,16 @@
         <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>98</v>
+        <v>55</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="136">
@@ -1654,224 +1693,224 @@
         <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>100</v>
+        <v>57</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>101</v>
+        <v>59</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17">
       <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>102</v>
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>102</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="170">
       <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>103</v>
+        <v>29</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>105</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51">
       <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="102">
       <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34">
-      <c r="A15" s="10" t="s">
-        <v>31</v>
+      <c r="A15" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>111</v>
+      <c r="E15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>115</v>
+        <v>67</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>116</v>
+        <v>67</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="51">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="51">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>117</v>
+        <v>70</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="85">
       <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>120</v>
+        <v>39</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>121</v>
+        <v>72</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="51">
       <c r="A23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>122</v>
+        <v>40</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="102">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1975,19 +2014,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="5" t="s"/>
       <c r="I2" s="5" t="s"/>
@@ -2000,13 +2039,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="5" t="s"/>
       <c r="G3" s="5" t="s"/>
@@ -2025,7 +2064,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="5" t="s"/>
       <c r="G4" s="5" t="s"/>
@@ -2046,7 +2085,7 @@
         <v>21</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2105,9 +2144,13 @@
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s"/>
-      <c r="C10" s="8" t="s"/>
-      <c r="D10" s="5" t="s"/>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s"/>
       <c r="E10" s="5" t="s"/>
       <c r="F10" s="5" t="s"/>
       <c r="G10" s="5" t="s"/>
@@ -2116,7 +2159,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s"/>
       <c r="C11" s="5" t="s"/>
@@ -2129,7 +2172,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5" t="s"/>
       <c r="C12" s="8" t="s"/>
@@ -2142,7 +2185,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s"/>
       <c r="C13" s="8" t="s"/>
@@ -2155,7 +2198,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s"/>
       <c r="C14" s="8" t="s"/>
@@ -2167,8 +2210,8 @@
       <c r="I14" s="5" t="s"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>31</v>
+      <c r="A15" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s"/>
       <c r="C15" s="8" t="s"/>
@@ -2181,7 +2224,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s"/>
       <c r="C16" s="8" t="s"/>
@@ -2194,7 +2237,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s"/>
       <c r="C17" s="8" t="s"/>
@@ -2207,7 +2250,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5" t="s"/>
       <c r="C18" s="5" t="s"/>
@@ -2220,7 +2263,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="5" t="s"/>
       <c r="C19" s="5" t="s"/>
@@ -2233,7 +2276,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5" t="s"/>
       <c r="C20" s="5" t="s"/>
@@ -2246,7 +2289,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s"/>
       <c r="C21" s="5" t="s"/>
@@ -2259,7 +2302,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="5" t="s"/>
       <c r="C22" s="8" t="s"/>
@@ -2272,7 +2315,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="5" t="s"/>
       <c r="C23" s="8" t="s"/>
@@ -2285,7 +2328,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="5" t="s"/>
       <c r="C24" s="5" t="s"/>
@@ -2305,6 +2348,7 @@
     <hyperlink ref="E3" r:id="rId4"/>
     <hyperlink ref="E4" r:id="rId5"/>
     <hyperlink ref="I5" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
